--- a/data/20240612_missfood_regions_long.xlsx
+++ b/data/20240612_missfood_regions_long.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\GitHub\Country_Snapshots\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B63706D-665C-4D4D-AD84-F386C8AF3B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9E88CE-4A7F-47DC-B024-F26EFAB8A600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$E$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$E$883</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -420,10 +420,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E883"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A850" workbookViewId="0">
-      <selection activeCell="D875" sqref="D875"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,7 +452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -468,7 +469,7 @@
         <v>20.5426400480479</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -485,7 +486,7 @@
         <v>10.924243776763699</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -502,7 +503,7 @@
         <v>32.499750362461903</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -519,7 +520,7 @@
         <v>9.5475344359809799</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -536,7 +537,7 @@
         <v>1.5018322688615899</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -553,7 +554,7 @@
         <v>21.8331540542044</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -570,7 +571,7 @@
         <v>1.73285430347796</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -587,7 +588,7 @@
         <v>35.712319565289299</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -604,7 +605,7 @@
         <v>0.221403447783172</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -621,7 +622,7 @@
         <v>28.523642639018401</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -638,7 +639,7 @@
         <v>9.8626742429161194</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -655,7 +656,7 @@
         <v>0.82723657311073395</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -672,7 +673,7 @@
         <v>45.371746806182003</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -751,10 +752,10 @@
         <v>2020</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>50.833270559770597</v>
+        <v>19.3709232152978</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -762,16 +763,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1">
         <v>2020</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>3.87943900890996</v>
+        <v>62.830065859412997</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -779,16 +780,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1">
         <v>2020</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>52.259137110947897</v>
+        <v>1.7042308312022001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -796,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>2020</v>
@@ -805,10 +806,10 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>19.3709232152978</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>54.737029408797603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -825,7 +826,7 @@
         <v>4.1409663554216198</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -842,7 +843,7 @@
         <v>0.185146099853708</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -859,7 +860,7 @@
         <v>8.0803989490927304</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -876,7 +877,7 @@
         <v>52.715786746222598</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -893,7 +894,7 @@
         <v>1.8466318214303099</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -910,7 +911,7 @@
         <v>15.234200466850201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -927,7 +928,7 @@
         <v>1.6214501909107899</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -944,7 +945,7 @@
         <v>76.547715026982701</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -961,7 +962,7 @@
         <v>3.4856919689844301</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -978,7 +979,7 @@
         <v>40.151149219116</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -995,7 +996,7 @@
         <v>85.438769529090905</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>35.298997053163902</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>108.513665942302</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>62.797798826352199</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>14.5815630172558</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>17.460961835340701</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>9.3595199738439803</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>3.8841003940094598</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>0.50690507246499095</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>7.3990567226578499</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>1.30593389688234</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>18.630866324747299</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>13.8172982122215</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>31.540067758834301</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>7.8308209723735001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>0.12798334879324699</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>16.842046981962199</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>1.2869608245606301</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>29.121642211759799</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>0.12500128441410699</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>28.511867697158099</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>6.3749056243411104</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>0.36361797715344302</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>35.867364580097799</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>4.7330183768611098</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>35.4585644813437</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>0.75923505329388496</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>48.7534946028712</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>47.9036608754311</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>4.62295408198906</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>74.127283126912602</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>14.1182213289197</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>2.3655962262847998</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>9.4999440669295498E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>5.0115374886422401</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>43.862104312028698</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>0.80797583161029796</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>11.426019183540699</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>2.2817649256153199</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>80.625540222056799</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>5.0184337743850698</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>28.029587431667299</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>73.002857111385296</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>19.017579768664501</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>97.075802320765902</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>60.0970800964338</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>14.723680434053099</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>40.790567248966099</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>6.8095001370638402</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>2.3762247282009001</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>0.130455736259906</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>7.4732678117605102</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>2.1663694661772102</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>21.017836828154401</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>13.169009363891099</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>41.299209270972199</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>8.2461688863703202</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>0.240957847143392</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>17.579686876732001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>1.24060348267904</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>32.219896666444797</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>0.117319272159866</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>26.871234123731899</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>6.0201998230131997</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>0.54822149790902197</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>34.988925655416097</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>5.4066887039060099</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>57.717752034572698</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>2.8648803293037699</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>64.112616234044097</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>43.7258378767106</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>1.8594505418003899</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>71.471266045762604</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>16.270927907463001</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>3.8543484644216699</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>4.5533664606102801E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>3.7645741692726999</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>47.938532053564202</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>0.49427732668754398</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>14.8564031371188</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>1.4943917208131201</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>84.686066609274604</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>3.6383947588229</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>27.536919891048001</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>69.233888009311698</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>18.596111510008601</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>95.320609883764703</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>59.729510276481399</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>15.0916131376128</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>40.606577874188901</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>7.2245567284114802</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>3.1064220850900699</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -2559,7 +2560,7 @@
         <v>0.21451590989111399</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>8.0332282844975502</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>1.6924412868955101</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>16.487556583604601</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>8.9660235271987094</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>30.610160323085999</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>9.0741013195075393</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>0.50381011130703601</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>22.337441492336701</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>1.67153361250328</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>44.0649364964925</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>0.14375913226687101</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>27.272979386194599</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>7.5753596407949599</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>0.67254382857384298</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>38.558653570207497</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>6.1205638805878797</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>72.870498245552199</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>0.88230641610602201</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>70.962456542782206</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>49.2182420697333</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -2916,7 +2917,7 @@
         <v>3.5360170661796899</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>57.286596175762902</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>22.5067497658309</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>4.3732809911867898</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>0.17847556630488801</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>5.0783751983785299</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>51.097433816021898</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>0.77752264967825602</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>12.105961948617001</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>1.7977291279671599</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>74.169122602116502</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>4.07274314385662</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>37.305409878520898</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>67.067255069243103</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>28.371254918636801</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>98.536583344545093</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>55.211804341621203</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>18.413568664182002</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>22.644118836271101</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>6.7384152368136796</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>3.6427222461228701</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>0.37809267153301601</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>7.4535305132128897</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>1.91264115022645</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>17.6206776957283</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>13.0364648323708</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>30.1344251607016</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>9.80084537487412</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>0.28301186089201502</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>23.295190579090701</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>1.63644044547185</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>45.4851009918101</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>0.145257766172041</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>26.193298522470599</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>7.5786032445357296</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>0.59281372829688495</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>40.216597927125399</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>5.9395829486690799</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>68.256278880908397</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>2.5879716460093301</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>56.975560463759599</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>56.360373114965597</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>9.3374261858994902</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>49.309660289493301</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>17.7236351196449</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>4.51612428715893</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -3698,7 +3699,7 @@
         <v>0.18306115584716201</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>7.4152892679296096</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>51.934932658458898</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>1.58317092117171</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>14.217636288334401</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>1.53345793075701</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>77.926959793998705</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>5.2492698006314997</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -3834,7 +3835,7 @@
         <v>36.757926788317398</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>70.628392848850197</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>25.750157545212101</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -3885,7 +3886,7 @@
         <v>108.11889718017601</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>56.080857281883503</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>19.369373019577299</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -3936,7 +3937,7 @@
         <v>19.3575663799806</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>9</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>6.1150268685442803</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>3.4809050898154901</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -3987,7 +3988,7 @@
         <v>0.61937617116529897</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -4004,7 +4005,7 @@
         <v>6.1487441345995597</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>1.8944179014538201</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>16.487556583604601</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>2</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>8.9660235271987094</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -4072,7 +4073,7 @@
         <v>30.610160323085999</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>9.0741013195075393</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>2</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>0.50381011130703601</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>2</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>22.337441492336701</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>2</v>
       </c>
@@ -4140,7 +4141,7 @@
         <v>1.67153361250328</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -4157,7 +4158,7 @@
         <v>44.0649364964925</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>0.14375913226687101</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>27.272979386194599</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -4208,7 +4209,7 @@
         <v>7.5753596407949599</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>0.67254382857384298</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>38.558653570207497</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>6.1205638805878797</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>72.870498245552199</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>0.88230641610602201</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>70.962456542782206</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>49.2182420697333</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -4344,7 +4345,7 @@
         <v>3.5360170661796899</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>57.286596175762902</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>22.5067497658309</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>4.3732809911867898</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>0.17847556630488801</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>5.0783751983785299</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>51.097433816021898</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>0.77752264967825602</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>12.105961948617001</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>1.7977291279671599</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>74.169122602116502</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -4531,7 +4532,7 @@
         <v>4.07274314385662</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -4548,7 +4549,7 @@
         <v>37.305409878520898</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -4565,7 +4566,7 @@
         <v>67.067255069243103</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -4582,7 +4583,7 @@
         <v>28.371254918636801</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>98.536583344545093</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>55.211804341621203</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>9</v>
       </c>
@@ -4633,7 +4634,7 @@
         <v>18.413568664182002</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -4650,7 +4651,7 @@
         <v>22.644118836271101</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -4667,7 +4668,7 @@
         <v>6.7384152368136796</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -4684,7 +4685,7 @@
         <v>3.6427222461228701</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>0.37809267153301601</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -4718,7 +4719,7 @@
         <v>7.4535305132128897</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>9</v>
       </c>
@@ -4735,7 +4736,7 @@
         <v>1.91264115022645</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>2</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>17.6206776957283</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>2</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>13.0364648323708</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>30.1344251607016</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>2</v>
       </c>
@@ -4803,7 +4804,7 @@
         <v>9.80084537487412</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>2</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>0.28301186089201502</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>2</v>
       </c>
@@ -4837,7 +4838,7 @@
         <v>23.295190579090701</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>2</v>
       </c>
@@ -4854,7 +4855,7 @@
         <v>1.63644044547185</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>45.4851009918101</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>0.145257766172041</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -4905,7 +4906,7 @@
         <v>26.193298522470599</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>7.5786032445357296</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -4939,7 +4940,7 @@
         <v>0.59281372829688495</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>40.216597927125399</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>5.9395829486690799</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>68.256278880908397</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>2.5879716460093301</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>56.975560463759599</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>56.360373114965597</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>9.3374261858994902</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>49.309660289493301</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>17.7236351196449</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>4.51612428715893</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -5126,7 +5127,7 @@
         <v>0.18306115584716201</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>7.4152892679296096</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>51.934932658458898</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -5177,7 +5178,7 @@
         <v>1.58317092117171</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>14.217636288334401</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>1.53345793075701</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>8</v>
       </c>
@@ -5228,7 +5229,7 @@
         <v>77.926959793998705</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -5245,7 +5246,7 @@
         <v>5.2492698006314997</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>8</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>36.757926788317398</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>70.628392848850197</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>25.750157545212101</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>8</v>
       </c>
@@ -5313,7 +5314,7 @@
         <v>108.11889718017601</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>8</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>56.080857281883503</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -5347,7 +5348,7 @@
         <v>19.369373019577299</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>19.3575663799806</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -5381,7 +5382,7 @@
         <v>6.1150268685442803</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>9</v>
       </c>
@@ -5398,7 +5399,7 @@
         <v>3.4809050898154901</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>0.61937617116529897</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>9</v>
       </c>
@@ -5432,7 +5433,7 @@
         <v>6.1487441345995597</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>9</v>
       </c>
@@ -5449,7 +5450,7 @@
         <v>1.8944179014538201</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>2</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>20.5426400480479</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -5483,7 +5484,7 @@
         <v>10.924243776763699</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>2</v>
       </c>
@@ -5500,7 +5501,7 @@
         <v>32.499750362461903</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>2</v>
       </c>
@@ -5517,7 +5518,7 @@
         <v>9.5475344359809799</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>2</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>1.5018322688615899</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>2</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>21.8331540542044</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>2</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>1.73285430347796</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>5</v>
       </c>
@@ -5585,7 +5586,7 @@
         <v>35.712319565289299</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>0.221403447783172</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -5619,7 +5620,7 @@
         <v>28.523642639018401</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -5636,7 +5637,7 @@
         <v>9.8626742429161194</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -5653,7 +5654,7 @@
         <v>0.82723657311073395</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>5</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>45.371746806182003</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>5</v>
       </c>
@@ -5701,7 +5702,7 @@
         <v>3</v>
       </c>
       <c r="E310">
-        <v>62.830065859412997</v>
+        <v>19.3709232152978</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
@@ -5709,7 +5710,7 @@
         <v>6</v>
       </c>
       <c r="B311" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C311" s="1">
         <v>2020</v>
@@ -5718,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="E311">
-        <v>1.7042308312022001</v>
+        <v>62.830065859412997</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
@@ -5726,7 +5727,7 @@
         <v>6</v>
       </c>
       <c r="B312" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C312" s="1">
         <v>2020</v>
@@ -5735,7 +5736,7 @@
         <v>3</v>
       </c>
       <c r="E312">
-        <v>54.737029408797603</v>
+        <v>1.7042308312022001</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
@@ -5743,16 +5744,16 @@
         <v>6</v>
       </c>
       <c r="B313" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C313" s="1">
         <v>2020</v>
       </c>
       <c r="D313" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E313">
-        <v>50.833270559770597</v>
+        <v>54.737029408797603</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
@@ -5760,16 +5761,16 @@
         <v>6</v>
       </c>
       <c r="B314" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C314" s="1">
         <v>2020</v>
       </c>
       <c r="D314" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E314">
-        <v>3.87943900890996</v>
+        <v>19.3709232152978</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
@@ -5777,7 +5778,7 @@
         <v>6</v>
       </c>
       <c r="B315" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C315" s="1">
         <v>2020</v>
@@ -5786,7 +5787,7 @@
         <v>4</v>
       </c>
       <c r="E315">
-        <v>52.259137110947897</v>
+        <v>50.833270559770597</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
@@ -5794,19 +5795,19 @@
         <v>6</v>
       </c>
       <c r="B316" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C316" s="1">
         <v>2020</v>
       </c>
       <c r="D316" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E316">
-        <v>19.3709232152978</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.87943900890996</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>7</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>4.1409663554216198</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>0.185146099853708</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -5857,7 +5858,7 @@
         <v>8.0803989490927304</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -5874,7 +5875,7 @@
         <v>52.715786746222598</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>1.8466318214303099</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -5908,7 +5909,7 @@
         <v>15.234200466850201</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -5925,7 +5926,7 @@
         <v>1.6214501909107899</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>8</v>
       </c>
@@ -5942,7 +5943,7 @@
         <v>76.547715026982701</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>8</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>3.4856919689844301</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>8</v>
       </c>
@@ -5976,7 +5977,7 @@
         <v>40.151149219116</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>8</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>85.438769529090905</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>8</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>35.298997053163902</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>8</v>
       </c>
@@ -6027,7 +6028,7 @@
         <v>108.513665942302</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>8</v>
       </c>
@@ -6044,7 +6045,7 @@
         <v>62.797798826352199</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>14.5815630172558</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>9</v>
       </c>
@@ -6078,7 +6079,7 @@
         <v>17.460961835340701</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -6095,7 +6096,7 @@
         <v>9.3595199738439803</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>3.8841003940094598</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -6129,7 +6130,7 @@
         <v>0.50690507246499095</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>9</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>7.3990567226578499</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>9</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>1.30593389688234</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>2</v>
       </c>
@@ -6180,7 +6181,7 @@
         <v>18.630866324747299</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>2</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>13.8172982122215</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>2</v>
       </c>
@@ -6214,7 +6215,7 @@
         <v>31.540067758834301</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>2</v>
       </c>
@@ -6231,7 +6232,7 @@
         <v>7.8308209723735001</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>2</v>
       </c>
@@ -6248,7 +6249,7 @@
         <v>0.12798334879324699</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>2</v>
       </c>
@@ -6265,7 +6266,7 @@
         <v>16.842046981962199</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>2</v>
       </c>
@@ -6282,7 +6283,7 @@
         <v>1.2869608245606301</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>5</v>
       </c>
@@ -6299,7 +6300,7 @@
         <v>29.121642211759799</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>5</v>
       </c>
@@ -6316,7 +6317,7 @@
         <v>0.12500128441410699</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>28.511867697158099</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -6350,7 +6351,7 @@
         <v>6.3749056243411104</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>5</v>
       </c>
@@ -6367,7 +6368,7 @@
         <v>0.36361797715344302</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>5</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>35.867364580097799</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>5</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>4.7330183768611098</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>6</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>35.4585644813437</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>6</v>
       </c>
@@ -6435,7 +6436,7 @@
         <v>0.75923505329388496</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>6</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>48.7534946028712</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>6</v>
       </c>
@@ -6469,7 +6470,7 @@
         <v>47.9036608754311</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -6486,7 +6487,7 @@
         <v>4.62295408198906</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>6</v>
       </c>
@@ -6503,7 +6504,7 @@
         <v>74.127283126912602</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>6</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>14.1182213289197</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>7</v>
       </c>
@@ -6537,7 +6538,7 @@
         <v>2.3655962262847998</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>9.4999440669295498E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>7</v>
       </c>
@@ -6571,7 +6572,7 @@
         <v>5.0115374886422401</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>43.862104312028698</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -6605,7 +6606,7 @@
         <v>0.80797583161029796</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>7</v>
       </c>
@@ -6622,7 +6623,7 @@
         <v>11.426019183540699</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -6639,7 +6640,7 @@
         <v>2.2817649256153199</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>8</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>80.625540222056799</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>8</v>
       </c>
@@ -6673,7 +6674,7 @@
         <v>5.0184337743850698</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>8</v>
       </c>
@@ -6690,7 +6691,7 @@
         <v>28.029587431667299</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>8</v>
       </c>
@@ -6707,7 +6708,7 @@
         <v>73.002857111385296</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>8</v>
       </c>
@@ -6724,7 +6725,7 @@
         <v>19.017579768664501</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>8</v>
       </c>
@@ -6741,7 +6742,7 @@
         <v>97.075802320765902</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>8</v>
       </c>
@@ -6758,7 +6759,7 @@
         <v>60.0970800964338</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>9</v>
       </c>
@@ -6775,7 +6776,7 @@
         <v>14.723680434053099</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>9</v>
       </c>
@@ -6792,7 +6793,7 @@
         <v>40.790567248966099</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -6809,7 +6810,7 @@
         <v>6.8095001370638402</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>9</v>
       </c>
@@ -6826,7 +6827,7 @@
         <v>2.3762247282009001</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>9</v>
       </c>
@@ -6843,7 +6844,7 @@
         <v>0.130455736259906</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>9</v>
       </c>
@@ -6860,7 +6861,7 @@
         <v>7.4732678117605102</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>9</v>
       </c>
@@ -6877,7 +6878,7 @@
         <v>2.1663694661772102</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>2</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>21.017836828154401</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>2</v>
       </c>
@@ -6911,7 +6912,7 @@
         <v>13.169009363891099</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>2</v>
       </c>
@@ -6928,7 +6929,7 @@
         <v>41.299209270972199</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>2</v>
       </c>
@@ -6945,7 +6946,7 @@
         <v>8.2461688863703202</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>2</v>
       </c>
@@ -6962,7 +6963,7 @@
         <v>0.240957847143392</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>2</v>
       </c>
@@ -6979,7 +6980,7 @@
         <v>17.579686876732001</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>2</v>
       </c>
@@ -6996,7 +6997,7 @@
         <v>1.24060348267904</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>5</v>
       </c>
@@ -7013,7 +7014,7 @@
         <v>32.219896666444797</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>5</v>
       </c>
@@ -7030,7 +7031,7 @@
         <v>0.117319272159866</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>5</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>26.871234123731899</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>5</v>
       </c>
@@ -7064,7 +7065,7 @@
         <v>6.0201998230131997</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>5</v>
       </c>
@@ -7081,7 +7082,7 @@
         <v>0.54822149790902197</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>5</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>34.988925655416097</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>5</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>5.4066887039060099</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>6</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>57.717752034572698</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>6</v>
       </c>
@@ -7149,7 +7150,7 @@
         <v>2.8648803293037699</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>6</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>64.112616234044097</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>6</v>
       </c>
@@ -7183,7 +7184,7 @@
         <v>43.7258378767106</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>6</v>
       </c>
@@ -7200,7 +7201,7 @@
         <v>1.8594505418003899</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>6</v>
       </c>
@@ -7217,7 +7218,7 @@
         <v>71.471266045762604</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>6</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>16.270927907463001</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -7251,7 +7252,7 @@
         <v>3.8543484644216699</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>7</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>4.5533664606102801E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -7285,7 +7286,7 @@
         <v>3.7645741692726999</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>47.938532053564202</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -7319,7 +7320,7 @@
         <v>0.49427732668754398</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>7</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>14.8564031371188</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -7353,7 +7354,7 @@
         <v>1.4943917208131201</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>8</v>
       </c>
@@ -7370,7 +7371,7 @@
         <v>84.686066609274604</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>8</v>
       </c>
@@ -7387,7 +7388,7 @@
         <v>3.6383947588229</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>8</v>
       </c>
@@ -7404,7 +7405,7 @@
         <v>27.536919891048001</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>8</v>
       </c>
@@ -7421,7 +7422,7 @@
         <v>69.233888009311698</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>8</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>18.596111510008601</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>8</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>95.320609883764703</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>8</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>59.729510276481399</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -7489,7 +7490,7 @@
         <v>15.0916131376128</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -7506,7 +7507,7 @@
         <v>40.606577874188901</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>9</v>
       </c>
@@ -7523,7 +7524,7 @@
         <v>7.2245567284114802</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>9</v>
       </c>
@@ -7540,7 +7541,7 @@
         <v>3.1064220850900699</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>9</v>
       </c>
@@ -7557,7 +7558,7 @@
         <v>0.21451590989111399</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>9</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>8.0332282844975502</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>9</v>
       </c>
@@ -7591,7 +7592,7 @@
         <v>1.6924412868955101</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>2</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>16.487556583604601</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>2</v>
       </c>
@@ -7625,7 +7626,7 @@
         <v>8.9660235271987094</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>2</v>
       </c>
@@ -7642,7 +7643,7 @@
         <v>30.610160323085999</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>2</v>
       </c>
@@ -7659,7 +7660,7 @@
         <v>9.0741013195075393</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>2</v>
       </c>
@@ -7676,7 +7677,7 @@
         <v>0.50381011130703601</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>2</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v>22.337441492336701</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>2</v>
       </c>
@@ -7710,7 +7711,7 @@
         <v>1.67153361250328</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>5</v>
       </c>
@@ -7727,7 +7728,7 @@
         <v>44.0649364964925</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>5</v>
       </c>
@@ -7744,7 +7745,7 @@
         <v>0.14375913226687101</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>5</v>
       </c>
@@ -7761,7 +7762,7 @@
         <v>27.272979386194599</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>5</v>
       </c>
@@ -7778,7 +7779,7 @@
         <v>7.5753596407949599</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>5</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>0.67254382857384298</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>5</v>
       </c>
@@ -7812,7 +7813,7 @@
         <v>38.558653570207497</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>5</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>6.1205638805878797</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>6</v>
       </c>
@@ -7846,7 +7847,7 @@
         <v>72.870498245552199</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>6</v>
       </c>
@@ -7863,7 +7864,7 @@
         <v>0.88230641610602201</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>6</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>70.962456542782206</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>6</v>
       </c>
@@ -7897,7 +7898,7 @@
         <v>49.2182420697333</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>6</v>
       </c>
@@ -7914,7 +7915,7 @@
         <v>3.5360170661796899</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>6</v>
       </c>
@@ -7931,7 +7932,7 @@
         <v>57.286596175762902</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>6</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>22.5067497658309</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -7965,7 +7966,7 @@
         <v>4.3732809911867898</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -7982,7 +7983,7 @@
         <v>0.17847556630488801</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -7999,7 +8000,7 @@
         <v>5.0783751983785299</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -8016,7 +8017,7 @@
         <v>51.097433816021898</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -8033,7 +8034,7 @@
         <v>0.77752264967825602</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -8050,7 +8051,7 @@
         <v>12.105961948617001</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -8067,7 +8068,7 @@
         <v>1.7977291279671599</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>8</v>
       </c>
@@ -8084,7 +8085,7 @@
         <v>74.169122602116502</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>8</v>
       </c>
@@ -8101,7 +8102,7 @@
         <v>4.07274314385662</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>8</v>
       </c>
@@ -8118,7 +8119,7 @@
         <v>37.305409878520898</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>8</v>
       </c>
@@ -8135,7 +8136,7 @@
         <v>67.067255069243103</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>8</v>
       </c>
@@ -8152,7 +8153,7 @@
         <v>28.371254918636801</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>8</v>
       </c>
@@ -8169,7 +8170,7 @@
         <v>98.536583344545093</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>8</v>
       </c>
@@ -8186,7 +8187,7 @@
         <v>55.211804341621203</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>9</v>
       </c>
@@ -8203,7 +8204,7 @@
         <v>18.413568664182002</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>9</v>
       </c>
@@ -8220,7 +8221,7 @@
         <v>22.644118836271101</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>9</v>
       </c>
@@ -8237,7 +8238,7 @@
         <v>6.7384152368136796</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>9</v>
       </c>
@@ -8254,7 +8255,7 @@
         <v>3.6427222461228701</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>9</v>
       </c>
@@ -8271,7 +8272,7 @@
         <v>0.37809267153301601</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>9</v>
       </c>
@@ -8288,7 +8289,7 @@
         <v>7.4535305132128897</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>9</v>
       </c>
@@ -8305,7 +8306,7 @@
         <v>1.91264115022645</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>2</v>
       </c>
@@ -8322,7 +8323,7 @@
         <v>17.6206776957283</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>2</v>
       </c>
@@ -8339,7 +8340,7 @@
         <v>13.0364648323708</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>2</v>
       </c>
@@ -8356,7 +8357,7 @@
         <v>30.1344251607016</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>2</v>
       </c>
@@ -8373,7 +8374,7 @@
         <v>9.80084537487412</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>2</v>
       </c>
@@ -8390,7 +8391,7 @@
         <v>0.28301186089201502</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>2</v>
       </c>
@@ -8407,7 +8408,7 @@
         <v>23.295190579090701</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>2</v>
       </c>
@@ -8424,7 +8425,7 @@
         <v>1.63644044547185</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>5</v>
       </c>
@@ -8441,7 +8442,7 @@
         <v>45.4851009918101</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>5</v>
       </c>
@@ -8458,7 +8459,7 @@
         <v>0.145257766172041</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>5</v>
       </c>
@@ -8475,7 +8476,7 @@
         <v>26.193298522470599</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>5</v>
       </c>
@@ -8492,7 +8493,7 @@
         <v>7.5786032445357296</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>5</v>
       </c>
@@ -8509,7 +8510,7 @@
         <v>0.59281372829688495</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>5</v>
       </c>
@@ -8526,7 +8527,7 @@
         <v>40.216597927125399</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>5</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>5.9395829486690799</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>6</v>
       </c>
@@ -8560,7 +8561,7 @@
         <v>68.256278880908397</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>6</v>
       </c>
@@ -8577,7 +8578,7 @@
         <v>2.5879716460093301</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>6</v>
       </c>
@@ -8594,7 +8595,7 @@
         <v>56.975560463759599</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>6</v>
       </c>
@@ -8611,7 +8612,7 @@
         <v>56.360373114965597</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>6</v>
       </c>
@@ -8628,7 +8629,7 @@
         <v>9.3374261858994902</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>6</v>
       </c>
@@ -8645,7 +8646,7 @@
         <v>49.309660289493301</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>6</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>17.7236351196449</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>7</v>
       </c>
@@ -8679,7 +8680,7 @@
         <v>4.51612428715893</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>7</v>
       </c>
@@ -8696,7 +8697,7 @@
         <v>0.18306115584716201</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>7</v>
       </c>
@@ -8713,7 +8714,7 @@
         <v>7.4152892679296096</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>7</v>
       </c>
@@ -8730,7 +8731,7 @@
         <v>51.934932658458898</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>7</v>
       </c>
@@ -8747,7 +8748,7 @@
         <v>1.58317092117171</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>7</v>
       </c>
@@ -8764,7 +8765,7 @@
         <v>14.217636288334401</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -8781,7 +8782,7 @@
         <v>1.53345793075701</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>8</v>
       </c>
@@ -8798,7 +8799,7 @@
         <v>77.926959793998705</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>8</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>5.2492698006314997</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>8</v>
       </c>
@@ -8832,7 +8833,7 @@
         <v>36.757926788317398</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>8</v>
       </c>
@@ -8849,7 +8850,7 @@
         <v>70.628392848850197</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>8</v>
       </c>
@@ -8866,7 +8867,7 @@
         <v>25.750157545212101</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>8</v>
       </c>
@@ -8883,7 +8884,7 @@
         <v>108.11889718017601</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>8</v>
       </c>
@@ -8900,7 +8901,7 @@
         <v>56.080857281883503</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>9</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>19.369373019577299</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>9</v>
       </c>
@@ -8934,7 +8935,7 @@
         <v>19.3575663799806</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>9</v>
       </c>
@@ -8951,7 +8952,7 @@
         <v>6.1150268685442803</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>9</v>
       </c>
@@ -8968,7 +8969,7 @@
         <v>3.4809050898154901</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>9</v>
       </c>
@@ -8985,7 +8986,7 @@
         <v>0.61937617116529897</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>9</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>6.1487441345995597</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>9</v>
       </c>
@@ -9019,7 +9020,7 @@
         <v>1.8944179014538201</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>2</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>16.487556583604601</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>2</v>
       </c>
@@ -9053,7 +9054,7 @@
         <v>8.9660235271987094</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>2</v>
       </c>
@@ -9070,7 +9071,7 @@
         <v>30.610160323085999</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>2</v>
       </c>
@@ -9087,7 +9088,7 @@
         <v>9.0741013195075393</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>2</v>
       </c>
@@ -9104,7 +9105,7 @@
         <v>0.50381011130703601</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>2</v>
       </c>
@@ -9121,7 +9122,7 @@
         <v>22.337441492336701</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>2</v>
       </c>
@@ -9138,7 +9139,7 @@
         <v>1.67153361250328</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>5</v>
       </c>
@@ -9155,7 +9156,7 @@
         <v>44.0649364964925</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>5</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>0.14375913226687101</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>5</v>
       </c>
@@ -9189,7 +9190,7 @@
         <v>27.272979386194599</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>5</v>
       </c>
@@ -9206,7 +9207,7 @@
         <v>7.5753596407949599</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>5</v>
       </c>
@@ -9223,7 +9224,7 @@
         <v>0.67254382857384298</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>5</v>
       </c>
@@ -9240,7 +9241,7 @@
         <v>38.558653570207497</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>5</v>
       </c>
@@ -9257,7 +9258,7 @@
         <v>6.1205638805878797</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>6</v>
       </c>
@@ -9274,7 +9275,7 @@
         <v>72.870498245552199</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>6</v>
       </c>
@@ -9291,7 +9292,7 @@
         <v>0.88230641610602201</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>6</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>70.962456542782206</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>6</v>
       </c>
@@ -9325,7 +9326,7 @@
         <v>49.2182420697333</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>6</v>
       </c>
@@ -9342,7 +9343,7 @@
         <v>3.5360170661796899</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>6</v>
       </c>
@@ -9359,7 +9360,7 @@
         <v>57.286596175762902</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>6</v>
       </c>
@@ -9376,7 +9377,7 @@
         <v>22.5067497658309</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>7</v>
       </c>
@@ -9393,7 +9394,7 @@
         <v>4.3732809911867898</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>7</v>
       </c>
@@ -9410,7 +9411,7 @@
         <v>0.17847556630488801</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>7</v>
       </c>
@@ -9427,7 +9428,7 @@
         <v>5.0783751983785299</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>7</v>
       </c>
@@ -9444,7 +9445,7 @@
         <v>51.097433816021898</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>7</v>
       </c>
@@ -9461,7 +9462,7 @@
         <v>0.77752264967825602</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>7</v>
       </c>
@@ -9478,7 +9479,7 @@
         <v>12.105961948617001</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>7</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>1.7977291279671599</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>8</v>
       </c>
@@ -9512,7 +9513,7 @@
         <v>74.169122602116502</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>8</v>
       </c>
@@ -9529,7 +9530,7 @@
         <v>4.07274314385662</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>8</v>
       </c>
@@ -9546,7 +9547,7 @@
         <v>37.305409878520898</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>8</v>
       </c>
@@ -9563,7 +9564,7 @@
         <v>67.067255069243103</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>8</v>
       </c>
@@ -9580,7 +9581,7 @@
         <v>28.371254918636801</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>8</v>
       </c>
@@ -9597,7 +9598,7 @@
         <v>98.536583344545093</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>8</v>
       </c>
@@ -9614,7 +9615,7 @@
         <v>55.211804341621203</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>9</v>
       </c>
@@ -9631,7 +9632,7 @@
         <v>18.413568664182002</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>9</v>
       </c>
@@ -9648,7 +9649,7 @@
         <v>22.644118836271101</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>9</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>6.7384152368136796</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>9</v>
       </c>
@@ -9682,7 +9683,7 @@
         <v>3.6427222461228701</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>9</v>
       </c>
@@ -9699,7 +9700,7 @@
         <v>0.37809267153301601</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>9</v>
       </c>
@@ -9716,7 +9717,7 @@
         <v>7.4535305132128897</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>9</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>1.91264115022645</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>2</v>
       </c>
@@ -9750,7 +9751,7 @@
         <v>17.6206776957283</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>2</v>
       </c>
@@ -9767,7 +9768,7 @@
         <v>13.0364648323708</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>2</v>
       </c>
@@ -9784,7 +9785,7 @@
         <v>30.1344251607016</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>2</v>
       </c>
@@ -9801,7 +9802,7 @@
         <v>9.80084537487412</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>2</v>
       </c>
@@ -9818,7 +9819,7 @@
         <v>0.28301186089201502</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>2</v>
       </c>
@@ -9835,7 +9836,7 @@
         <v>23.295190579090701</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>2</v>
       </c>
@@ -9852,7 +9853,7 @@
         <v>1.63644044547185</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>5</v>
       </c>
@@ -9869,7 +9870,7 @@
         <v>45.4851009918101</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>5</v>
       </c>
@@ -9886,7 +9887,7 @@
         <v>0.145257766172041</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>5</v>
       </c>
@@ -9903,7 +9904,7 @@
         <v>26.193298522470599</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>5</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>7.5786032445357296</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>5</v>
       </c>
@@ -9937,7 +9938,7 @@
         <v>0.59281372829688495</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>5</v>
       </c>
@@ -9954,7 +9955,7 @@
         <v>40.216597927125399</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>5</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>5.9395829486690799</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>6</v>
       </c>
@@ -9988,7 +9989,7 @@
         <v>68.256278880908397</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>6</v>
       </c>
@@ -10005,7 +10006,7 @@
         <v>2.5879716460093301</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>6</v>
       </c>
@@ -10022,7 +10023,7 @@
         <v>56.975560463759599</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>6</v>
       </c>
@@ -10039,7 +10040,7 @@
         <v>56.360373114965597</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>6</v>
       </c>
@@ -10056,7 +10057,7 @@
         <v>9.3374261858994902</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>6</v>
       </c>
@@ -10073,7 +10074,7 @@
         <v>49.309660289493301</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>6</v>
       </c>
@@ -10090,7 +10091,7 @@
         <v>17.7236351196449</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>7</v>
       </c>
@@ -10107,7 +10108,7 @@
         <v>4.51612428715893</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>7</v>
       </c>
@@ -10124,7 +10125,7 @@
         <v>0.18306115584716201</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>7</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>7.4152892679296096</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>7</v>
       </c>
@@ -10158,7 +10159,7 @@
         <v>51.934932658458898</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>7</v>
       </c>
@@ -10175,7 +10176,7 @@
         <v>1.58317092117171</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>7</v>
       </c>
@@ -10192,7 +10193,7 @@
         <v>14.217636288334401</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>7</v>
       </c>
@@ -10209,7 +10210,7 @@
         <v>1.53345793075701</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>8</v>
       </c>
@@ -10226,7 +10227,7 @@
         <v>77.926959793998705</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>8</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>5.2492698006314997</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>8</v>
       </c>
@@ -10260,7 +10261,7 @@
         <v>36.757926788317398</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>8</v>
       </c>
@@ -10277,7 +10278,7 @@
         <v>70.628392848850197</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>8</v>
       </c>
@@ -10294,7 +10295,7 @@
         <v>25.750157545212101</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>8</v>
       </c>
@@ -10311,7 +10312,7 @@
         <v>108.11889718017601</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>8</v>
       </c>
@@ -10328,7 +10329,7 @@
         <v>56.080857281883503</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>9</v>
       </c>
@@ -10345,7 +10346,7 @@
         <v>19.369373019577299</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>9</v>
       </c>
@@ -10362,7 +10363,7 @@
         <v>19.3575663799806</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>9</v>
       </c>
@@ -10379,7 +10380,7 @@
         <v>6.1150268685442803</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>9</v>
       </c>
@@ -10396,7 +10397,7 @@
         <v>3.4809050898154901</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>9</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>0.61937617116529897</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>9</v>
       </c>
@@ -10430,7 +10431,7 @@
         <v>6.1487441345995597</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>9</v>
       </c>
@@ -10447,7 +10448,7 @@
         <v>1.8944179014538201</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>2</v>
       </c>
@@ -10464,7 +10465,7 @@
         <v>20.5426400480479</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>2</v>
       </c>
@@ -10481,7 +10482,7 @@
         <v>10.924243776763699</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>2</v>
       </c>
@@ -10498,7 +10499,7 @@
         <v>32.499750362461903</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>2</v>
       </c>
@@ -10515,7 +10516,7 @@
         <v>9.5475344359809799</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>2</v>
       </c>
@@ -10532,7 +10533,7 @@
         <v>1.5018322688615899</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>2</v>
       </c>
@@ -10549,7 +10550,7 @@
         <v>21.8331540542044</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>2</v>
       </c>
@@ -10566,7 +10567,7 @@
         <v>1.73285430347796</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>5</v>
       </c>
@@ -10583,7 +10584,7 @@
         <v>35.712319565289299</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>5</v>
       </c>
@@ -10600,7 +10601,7 @@
         <v>0.221403447783172</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>5</v>
       </c>
@@ -10617,7 +10618,7 @@
         <v>28.523642639018401</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>5</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>9.8626742429161194</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>5</v>
       </c>
@@ -10651,7 +10652,7 @@
         <v>0.82723657311073395</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>5</v>
       </c>
@@ -10668,7 +10669,7 @@
         <v>45.371746806182003</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>5</v>
       </c>
@@ -10690,16 +10691,16 @@
         <v>6</v>
       </c>
       <c r="B604" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C604" s="1">
         <v>2020</v>
       </c>
       <c r="D604" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E604">
-        <v>62.830065859412997</v>
+        <v>52.259137110947897</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.35">
@@ -10707,16 +10708,16 @@
         <v>6</v>
       </c>
       <c r="B605" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C605" s="1">
         <v>2020</v>
       </c>
       <c r="D605" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E605">
-        <v>1.7042308312022001</v>
+        <v>50.833270559770597</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.35">
@@ -10724,16 +10725,16 @@
         <v>6</v>
       </c>
       <c r="B606" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C606" s="1">
         <v>2020</v>
       </c>
       <c r="D606" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E606">
-        <v>54.737029408797603</v>
+        <v>3.87943900890996</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.35">
@@ -10741,7 +10742,7 @@
         <v>6</v>
       </c>
       <c r="B607" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C607" s="1">
         <v>2020</v>
@@ -10750,7 +10751,7 @@
         <v>4</v>
       </c>
       <c r="E607">
-        <v>50.833270559770597</v>
+        <v>52.259137110947897</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.35">
@@ -10767,7 +10768,7 @@
         <v>4</v>
       </c>
       <c r="E608">
-        <v>3.87943900890996</v>
+        <v>50.833270559770597</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.35">
@@ -10784,7 +10785,7 @@
         <v>4</v>
       </c>
       <c r="E609">
-        <v>52.259137110947897</v>
+        <v>3.87943900890996</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.35">
@@ -10798,13 +10799,13 @@
         <v>2020</v>
       </c>
       <c r="D610" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E610">
-        <v>19.3709232152978</v>
-      </c>
-    </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
+        <v>52.259137110947897</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>7</v>
       </c>
@@ -10821,7 +10822,7 @@
         <v>4.1409663554216198</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>7</v>
       </c>
@@ -10838,7 +10839,7 @@
         <v>0.185146099853708</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>7</v>
       </c>
@@ -10855,7 +10856,7 @@
         <v>8.0803989490927304</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -10872,7 +10873,7 @@
         <v>52.715786746222598</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>7</v>
       </c>
@@ -10889,7 +10890,7 @@
         <v>1.8466318214303099</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>7</v>
       </c>
@@ -10906,7 +10907,7 @@
         <v>15.234200466850201</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>7</v>
       </c>
@@ -10923,7 +10924,7 @@
         <v>1.6214501909107899</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>8</v>
       </c>
@@ -10940,7 +10941,7 @@
         <v>76.547715026982701</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>8</v>
       </c>
@@ -10957,7 +10958,7 @@
         <v>3.4856919689844301</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>8</v>
       </c>
@@ -10974,7 +10975,7 @@
         <v>40.151149219116</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>8</v>
       </c>
@@ -10991,7 +10992,7 @@
         <v>85.438769529090905</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>8</v>
       </c>
@@ -11008,7 +11009,7 @@
         <v>35.298997053163902</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>8</v>
       </c>
@@ -11025,7 +11026,7 @@
         <v>108.513665942302</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>8</v>
       </c>
@@ -11042,7 +11043,7 @@
         <v>62.797798826352199</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>9</v>
       </c>
@@ -11059,7 +11060,7 @@
         <v>14.5815630172558</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>9</v>
       </c>
@@ -11076,7 +11077,7 @@
         <v>17.460961835340701</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>9</v>
       </c>
@@ -11093,7 +11094,7 @@
         <v>9.3595199738439803</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>9</v>
       </c>
@@ -11110,7 +11111,7 @@
         <v>3.8841003940094598</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>9</v>
       </c>
@@ -11127,7 +11128,7 @@
         <v>0.50690507246499095</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>9</v>
       </c>
@@ -11144,7 +11145,7 @@
         <v>7.3990567226578499</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>9</v>
       </c>
@@ -11161,7 +11162,7 @@
         <v>1.30593389688234</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>2</v>
       </c>
@@ -11178,7 +11179,7 @@
         <v>18.630866324747299</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>2</v>
       </c>
@@ -11195,7 +11196,7 @@
         <v>13.8172982122215</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>2</v>
       </c>
@@ -11212,7 +11213,7 @@
         <v>31.540067758834301</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>2</v>
       </c>
@@ -11229,7 +11230,7 @@
         <v>7.8308209723735001</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>2</v>
       </c>
@@ -11246,7 +11247,7 @@
         <v>0.12798334879324699</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>2</v>
       </c>
@@ -11263,7 +11264,7 @@
         <v>16.842046981962199</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>2</v>
       </c>
@@ -11280,7 +11281,7 @@
         <v>1.2869608245606301</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>5</v>
       </c>
@@ -11297,7 +11298,7 @@
         <v>29.121642211759799</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>5</v>
       </c>
@@ -11314,7 +11315,7 @@
         <v>0.12500128441410699</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>5</v>
       </c>
@@ -11331,7 +11332,7 @@
         <v>28.511867697158099</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>5</v>
       </c>
@@ -11348,7 +11349,7 @@
         <v>6.3749056243411104</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>5</v>
       </c>
@@ -11365,7 +11366,7 @@
         <v>0.36361797715344302</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>5</v>
       </c>
@@ -11382,7 +11383,7 @@
         <v>35.867364580097799</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>5</v>
       </c>
@@ -11399,7 +11400,7 @@
         <v>4.7330183768611098</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>6</v>
       </c>
@@ -11416,7 +11417,7 @@
         <v>35.4585644813437</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>6</v>
       </c>
@@ -11433,7 +11434,7 @@
         <v>0.75923505329388496</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>6</v>
       </c>
@@ -11450,7 +11451,7 @@
         <v>48.7534946028712</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>6</v>
       </c>
@@ -11467,7 +11468,7 @@
         <v>47.9036608754311</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>6</v>
       </c>
@@ -11484,7 +11485,7 @@
         <v>4.62295408198906</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>6</v>
       </c>
@@ -11501,7 +11502,7 @@
         <v>74.127283126912602</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>6</v>
       </c>
@@ -11518,7 +11519,7 @@
         <v>14.1182213289197</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>7</v>
       </c>
@@ -11535,7 +11536,7 @@
         <v>2.3655962262847998</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>7</v>
       </c>
@@ -11552,7 +11553,7 @@
         <v>9.4999440669295498E-2</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>7</v>
       </c>
@@ -11569,7 +11570,7 @@
         <v>5.0115374886422401</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>7</v>
       </c>
@@ -11586,7 +11587,7 @@
         <v>43.862104312028698</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>7</v>
       </c>
@@ -11603,7 +11604,7 @@
         <v>0.80797583161029796</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>7</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v>11.426019183540699</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>7</v>
       </c>
@@ -11637,7 +11638,7 @@
         <v>2.2817649256153199</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>8</v>
       </c>
@@ -11654,7 +11655,7 @@
         <v>80.625540222056799</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>8</v>
       </c>
@@ -11671,7 +11672,7 @@
         <v>5.0184337743850698</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>8</v>
       </c>
@@ -11688,7 +11689,7 @@
         <v>28.029587431667299</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>8</v>
       </c>
@@ -11705,7 +11706,7 @@
         <v>73.002857111385296</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>8</v>
       </c>
@@ -11722,7 +11723,7 @@
         <v>19.017579768664501</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>8</v>
       </c>
@@ -11739,7 +11740,7 @@
         <v>97.075802320765902</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>8</v>
       </c>
@@ -11756,7 +11757,7 @@
         <v>60.0970800964338</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>9</v>
       </c>
@@ -11773,7 +11774,7 @@
         <v>14.723680434053099</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>9</v>
       </c>
@@ -11790,7 +11791,7 @@
         <v>40.790567248966099</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>9</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>6.8095001370638402</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>9</v>
       </c>
@@ -11824,7 +11825,7 @@
         <v>2.3762247282009001</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>9</v>
       </c>
@@ -11841,7 +11842,7 @@
         <v>0.130455736259906</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>9</v>
       </c>
@@ -11858,7 +11859,7 @@
         <v>7.4732678117605102</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>9</v>
       </c>
@@ -11875,7 +11876,7 @@
         <v>2.1663694661772102</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>2</v>
       </c>
@@ -11892,7 +11893,7 @@
         <v>21.017836828154401</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>2</v>
       </c>
@@ -11909,7 +11910,7 @@
         <v>13.169009363891099</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>2</v>
       </c>
@@ -11926,7 +11927,7 @@
         <v>41.299209270972199</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>2</v>
       </c>
@@ -11943,7 +11944,7 @@
         <v>8.2461688863703202</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>2</v>
       </c>
@@ -11960,7 +11961,7 @@
         <v>0.240957847143392</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>2</v>
       </c>
@@ -11977,7 +11978,7 @@
         <v>17.579686876732001</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>2</v>
       </c>
@@ -11994,7 +11995,7 @@
         <v>1.24060348267904</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>5</v>
       </c>
@@ -12011,7 +12012,7 @@
         <v>32.219896666444797</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>5</v>
       </c>
@@ -12028,7 +12029,7 @@
         <v>0.117319272159866</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>5</v>
       </c>
@@ -12045,7 +12046,7 @@
         <v>26.871234123731899</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>5</v>
       </c>
@@ -12062,7 +12063,7 @@
         <v>6.0201998230131997</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>5</v>
       </c>
@@ -12079,7 +12080,7 @@
         <v>0.54822149790902197</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>5</v>
       </c>
@@ -12096,7 +12097,7 @@
         <v>34.988925655416097</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>5</v>
       </c>
@@ -12113,7 +12114,7 @@
         <v>5.4066887039060099</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>6</v>
       </c>
@@ -12130,7 +12131,7 @@
         <v>57.717752034572698</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>6</v>
       </c>
@@ -12147,7 +12148,7 @@
         <v>2.8648803293037699</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>6</v>
       </c>
@@ -12164,7 +12165,7 @@
         <v>64.112616234044097</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>6</v>
       </c>
@@ -12181,7 +12182,7 @@
         <v>43.7258378767106</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>6</v>
       </c>
@@ -12198,7 +12199,7 @@
         <v>1.8594505418003899</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>6</v>
       </c>
@@ -12215,7 +12216,7 @@
         <v>71.471266045762604</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>6</v>
       </c>
@@ -12232,7 +12233,7 @@
         <v>16.270927907463001</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>7</v>
       </c>
@@ -12249,7 +12250,7 @@
         <v>3.8543484644216699</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>7</v>
       </c>
@@ -12266,7 +12267,7 @@
         <v>4.5533664606102801E-2</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>7</v>
       </c>
@@ -12283,7 +12284,7 @@
         <v>3.7645741692726999</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>7</v>
       </c>
@@ -12300,7 +12301,7 @@
         <v>47.938532053564202</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>7</v>
       </c>
@@ -12317,7 +12318,7 @@
         <v>0.49427732668754398</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>7</v>
       </c>
@@ -12334,7 +12335,7 @@
         <v>14.8564031371188</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>7</v>
       </c>
@@ -12351,7 +12352,7 @@
         <v>1.4943917208131201</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>8</v>
       </c>
@@ -12368,7 +12369,7 @@
         <v>84.686066609274604</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>8</v>
       </c>
@@ -12385,7 +12386,7 @@
         <v>3.6383947588229</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>8</v>
       </c>
@@ -12402,7 +12403,7 @@
         <v>27.536919891048001</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>8</v>
       </c>
@@ -12419,7 +12420,7 @@
         <v>69.233888009311698</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>8</v>
       </c>
@@ -12436,7 +12437,7 @@
         <v>18.596111510008601</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>8</v>
       </c>
@@ -12453,7 +12454,7 @@
         <v>95.320609883764703</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>8</v>
       </c>
@@ -12470,7 +12471,7 @@
         <v>59.729510276481399</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>9</v>
       </c>
@@ -12487,7 +12488,7 @@
         <v>15.0916131376128</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>9</v>
       </c>
@@ -12504,7 +12505,7 @@
         <v>40.606577874188901</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>9</v>
       </c>
@@ -12521,7 +12522,7 @@
         <v>7.2245567284114802</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>9</v>
       </c>
@@ -12538,7 +12539,7 @@
         <v>3.1064220850900699</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>9</v>
       </c>
@@ -12555,7 +12556,7 @@
         <v>0.21451590989111399</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>9</v>
       </c>
@@ -12572,7 +12573,7 @@
         <v>8.0332282844975502</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>9</v>
       </c>
@@ -12589,7 +12590,7 @@
         <v>1.6924412868955101</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>2</v>
       </c>
@@ -12606,7 +12607,7 @@
         <v>16.487556583604601</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>2</v>
       </c>
@@ -12623,7 +12624,7 @@
         <v>8.9660235271987094</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>2</v>
       </c>
@@ -12640,7 +12641,7 @@
         <v>30.610160323085999</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>2</v>
       </c>
@@ -12657,7 +12658,7 @@
         <v>9.0741013195075393</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>2</v>
       </c>
@@ -12674,7 +12675,7 @@
         <v>0.50381011130703601</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>2</v>
       </c>
@@ -12691,7 +12692,7 @@
         <v>22.337441492336701</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>2</v>
       </c>
@@ -12708,7 +12709,7 @@
         <v>1.67153361250328</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>5</v>
       </c>
@@ -12725,7 +12726,7 @@
         <v>44.0649364964925</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>5</v>
       </c>
@@ -12742,7 +12743,7 @@
         <v>0.14375913226687101</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>5</v>
       </c>
@@ -12759,7 +12760,7 @@
         <v>27.272979386194599</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>5</v>
       </c>
@@ -12776,7 +12777,7 @@
         <v>7.5753596407949599</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>5</v>
       </c>
@@ -12793,7 +12794,7 @@
         <v>0.67254382857384298</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>5</v>
       </c>
@@ -12810,7 +12811,7 @@
         <v>38.558653570207497</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>5</v>
       </c>
@@ -12827,7 +12828,7 @@
         <v>6.1205638805878797</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>6</v>
       </c>
@@ -12844,7 +12845,7 @@
         <v>72.870498245552199</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>6</v>
       </c>
@@ -12861,7 +12862,7 @@
         <v>0.88230641610602201</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>6</v>
       </c>
@@ -12878,7 +12879,7 @@
         <v>70.962456542782206</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>6</v>
       </c>
@@ -12895,7 +12896,7 @@
         <v>49.2182420697333</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>6</v>
       </c>
@@ -12912,7 +12913,7 @@
         <v>3.5360170661796899</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>6</v>
       </c>
@@ -12929,7 +12930,7 @@
         <v>57.286596175762902</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>6</v>
       </c>
@@ -12946,7 +12947,7 @@
         <v>22.5067497658309</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>7</v>
       </c>
@@ -12963,7 +12964,7 @@
         <v>4.3732809911867898</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>7</v>
       </c>
@@ -12980,7 +12981,7 @@
         <v>0.17847556630488801</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>7</v>
       </c>
@@ -12997,7 +12998,7 @@
         <v>5.0783751983785299</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>7</v>
       </c>
@@ -13014,7 +13015,7 @@
         <v>51.097433816021898</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>7</v>
       </c>
@@ -13031,7 +13032,7 @@
         <v>0.77752264967825602</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>7</v>
       </c>
@@ -13048,7 +13049,7 @@
         <v>12.105961948617001</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>7</v>
       </c>
@@ -13065,7 +13066,7 @@
         <v>1.7977291279671599</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>8</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>74.169122602116502</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>8</v>
       </c>
@@ -13099,7 +13100,7 @@
         <v>4.07274314385662</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>8</v>
       </c>
@@ -13116,7 +13117,7 @@
         <v>37.305409878520898</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>8</v>
       </c>
@@ -13133,7 +13134,7 @@
         <v>67.067255069243103</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>8</v>
       </c>
@@ -13150,7 +13151,7 @@
         <v>28.371254918636801</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>8</v>
       </c>
@@ -13167,7 +13168,7 @@
         <v>98.536583344545093</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>8</v>
       </c>
@@ -13184,7 +13185,7 @@
         <v>55.211804341621203</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>9</v>
       </c>
@@ -13201,7 +13202,7 @@
         <v>18.413568664182002</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>9</v>
       </c>
@@ -13218,7 +13219,7 @@
         <v>22.644118836271101</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>9</v>
       </c>
@@ -13235,7 +13236,7 @@
         <v>6.7384152368136796</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>9</v>
       </c>
@@ -13252,7 +13253,7 @@
         <v>3.6427222461228701</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>9</v>
       </c>
@@ -13269,7 +13270,7 @@
         <v>0.37809267153301601</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>9</v>
       </c>
@@ -13286,7 +13287,7 @@
         <v>7.4535305132128897</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>9</v>
       </c>
@@ -13303,7 +13304,7 @@
         <v>1.91264115022645</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>2</v>
       </c>
@@ -13320,7 +13321,7 @@
         <v>17.6206776957283</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>2</v>
       </c>
@@ -13337,7 +13338,7 @@
         <v>13.0364648323708</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>2</v>
       </c>
@@ -13354,7 +13355,7 @@
         <v>30.1344251607016</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>2</v>
       </c>
@@ -13371,7 +13372,7 @@
         <v>9.80084537487412</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>2</v>
       </c>
@@ -13388,7 +13389,7 @@
         <v>0.28301186089201502</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>2</v>
       </c>
@@ -13405,7 +13406,7 @@
         <v>23.295190579090701</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>2</v>
       </c>
@@ -13422,7 +13423,7 @@
         <v>1.63644044547185</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>5</v>
       </c>
@@ -13439,7 +13440,7 @@
         <v>45.4851009918101</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>5</v>
       </c>
@@ -13456,7 +13457,7 @@
         <v>0.145257766172041</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>5</v>
       </c>
@@ -13473,7 +13474,7 @@
         <v>26.193298522470599</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>5</v>
       </c>
@@ -13490,7 +13491,7 @@
         <v>7.5786032445357296</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>5</v>
       </c>
@@ -13507,7 +13508,7 @@
         <v>0.59281372829688495</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>5</v>
       </c>
@@ -13524,7 +13525,7 @@
         <v>40.216597927125399</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>5</v>
       </c>
@@ -13541,7 +13542,7 @@
         <v>5.9395829486690799</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>6</v>
       </c>
@@ -13558,7 +13559,7 @@
         <v>68.256278880908397</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>6</v>
       </c>
@@ -13575,7 +13576,7 @@
         <v>2.5879716460093301</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>6</v>
       </c>
@@ -13592,7 +13593,7 @@
         <v>56.975560463759599</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>6</v>
       </c>
@@ -13609,7 +13610,7 @@
         <v>56.360373114965597</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>6</v>
       </c>
@@ -13626,7 +13627,7 @@
         <v>9.3374261858994902</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>6</v>
       </c>
@@ -13643,7 +13644,7 @@
         <v>49.309660289493301</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>6</v>
       </c>
@@ -13660,7 +13661,7 @@
         <v>17.7236351196449</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>7</v>
       </c>
@@ -13677,7 +13678,7 @@
         <v>4.51612428715893</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>7</v>
       </c>
@@ -13694,7 +13695,7 @@
         <v>0.18306115584716201</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>7</v>
       </c>
@@ -13711,7 +13712,7 @@
         <v>7.4152892679296096</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>7</v>
       </c>
@@ -13728,7 +13729,7 @@
         <v>51.934932658458898</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>7</v>
       </c>
@@ -13745,7 +13746,7 @@
         <v>1.58317092117171</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>7</v>
       </c>
@@ -13762,7 +13763,7 @@
         <v>14.217636288334401</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>7</v>
       </c>
@@ -13779,7 +13780,7 @@
         <v>1.53345793075701</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>8</v>
       </c>
@@ -13796,7 +13797,7 @@
         <v>77.926959793998705</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>8</v>
       </c>
@@ -13813,7 +13814,7 @@
         <v>5.2492698006314997</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>8</v>
       </c>
@@ -13830,7 +13831,7 @@
         <v>36.757926788317398</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>8</v>
       </c>
@@ -13847,7 +13848,7 @@
         <v>70.628392848850197</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>8</v>
       </c>
@@ -13864,7 +13865,7 @@
         <v>25.750157545212101</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>8</v>
       </c>
@@ -13881,7 +13882,7 @@
         <v>108.11889718017601</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>8</v>
       </c>
@@ -13898,7 +13899,7 @@
         <v>56.080857281883503</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>9</v>
       </c>
@@ -13915,7 +13916,7 @@
         <v>19.369373019577299</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>9</v>
       </c>
@@ -13932,7 +13933,7 @@
         <v>19.3575663799806</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>9</v>
       </c>
@@ -13949,7 +13950,7 @@
         <v>6.1150268685442803</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>9</v>
       </c>
@@ -13966,7 +13967,7 @@
         <v>3.4809050898154901</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>9</v>
       </c>
@@ -13983,7 +13984,7 @@
         <v>0.61937617116529897</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>9</v>
       </c>
@@ -14000,7 +14001,7 @@
         <v>6.1487441345995597</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>9</v>
       </c>
@@ -14017,7 +14018,7 @@
         <v>1.8944179014538201</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>2</v>
       </c>
@@ -14034,7 +14035,7 @@
         <v>16.487556583604601</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>2</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>8.9660235271987094</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>2</v>
       </c>
@@ -14068,7 +14069,7 @@
         <v>30.610160323085999</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>2</v>
       </c>
@@ -14085,7 +14086,7 @@
         <v>9.0741013195075393</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>2</v>
       </c>
@@ -14102,7 +14103,7 @@
         <v>0.50381011130703601</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>2</v>
       </c>
@@ -14119,7 +14120,7 @@
         <v>22.337441492336701</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>2</v>
       </c>
@@ -14136,7 +14137,7 @@
         <v>1.67153361250328</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>5</v>
       </c>
@@ -14153,7 +14154,7 @@
         <v>44.0649364964925</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>5</v>
       </c>
@@ -14170,7 +14171,7 @@
         <v>0.14375913226687101</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>5</v>
       </c>
@@ -14187,7 +14188,7 @@
         <v>27.272979386194599</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>5</v>
       </c>
@@ -14204,7 +14205,7 @@
         <v>7.5753596407949599</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>5</v>
       </c>
@@ -14221,7 +14222,7 @@
         <v>0.67254382857384298</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>5</v>
       </c>
@@ -14238,7 +14239,7 @@
         <v>38.558653570207497</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>5</v>
       </c>
@@ -14255,7 +14256,7 @@
         <v>6.1205638805878797</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>6</v>
       </c>
@@ -14272,7 +14273,7 @@
         <v>72.870498245552199</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>6</v>
       </c>
@@ -14289,7 +14290,7 @@
         <v>0.88230641610602201</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>6</v>
       </c>
@@ -14306,7 +14307,7 @@
         <v>70.962456542782206</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>6</v>
       </c>
@@ -14323,7 +14324,7 @@
         <v>49.2182420697333</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>6</v>
       </c>
@@ -14340,7 +14341,7 @@
         <v>3.5360170661796899</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>6</v>
       </c>
@@ -14357,7 +14358,7 @@
         <v>57.286596175762902</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>6</v>
       </c>
@@ -14374,7 +14375,7 @@
         <v>22.5067497658309</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>7</v>
       </c>
@@ -14391,7 +14392,7 @@
         <v>4.3732809911867898</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>7</v>
       </c>
@@ -14408,7 +14409,7 @@
         <v>0.17847556630488801</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>7</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>5.0783751983785299</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>7</v>
       </c>
@@ -14442,7 +14443,7 @@
         <v>51.097433816021898</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
         <v>7</v>
       </c>
@@ -14459,7 +14460,7 @@
         <v>0.77752264967825602</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
         <v>7</v>
       </c>
@@ -14476,7 +14477,7 @@
         <v>12.105961948617001</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
         <v>7</v>
       </c>
@@ -14493,7 +14494,7 @@
         <v>1.7977291279671599</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
         <v>8</v>
       </c>
@@ -14510,7 +14511,7 @@
         <v>74.169122602116502</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
         <v>8</v>
       </c>
@@ -14527,7 +14528,7 @@
         <v>4.07274314385662</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>8</v>
       </c>
@@ -14544,7 +14545,7 @@
         <v>37.305409878520898</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>8</v>
       </c>
@@ -14561,7 +14562,7 @@
         <v>67.067255069243103</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>8</v>
       </c>
@@ -14578,7 +14579,7 @@
         <v>28.371254918636801</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
         <v>8</v>
       </c>
@@ -14595,7 +14596,7 @@
         <v>98.536583344545093</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
         <v>8</v>
       </c>
@@ -14612,7 +14613,7 @@
         <v>55.211804341621203</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
         <v>9</v>
       </c>
@@ -14629,7 +14630,7 @@
         <v>18.413568664182002</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
         <v>9</v>
       </c>
@@ -14646,7 +14647,7 @@
         <v>22.644118836271101</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
         <v>9</v>
       </c>
@@ -14663,7 +14664,7 @@
         <v>6.7384152368136796</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
         <v>9</v>
       </c>
@@ -14680,7 +14681,7 @@
         <v>3.6427222461228701</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
         <v>9</v>
       </c>
@@ -14697,7 +14698,7 @@
         <v>0.37809267153301601</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
         <v>9</v>
       </c>
@@ -14714,7 +14715,7 @@
         <v>7.4535305132128897</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
         <v>9</v>
       </c>
@@ -14731,7 +14732,7 @@
         <v>1.91264115022645</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
         <v>2</v>
       </c>
@@ -14748,7 +14749,7 @@
         <v>17.6206776957283</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
         <v>2</v>
       </c>
@@ -14765,7 +14766,7 @@
         <v>13.0364648323708</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
         <v>2</v>
       </c>
@@ -14782,7 +14783,7 @@
         <v>30.1344251607016</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
         <v>2</v>
       </c>
@@ -14799,7 +14800,7 @@
         <v>9.80084537487412</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
         <v>2</v>
       </c>
@@ -14816,7 +14817,7 @@
         <v>0.28301186089201502</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
         <v>2</v>
       </c>
@@ -14833,7 +14834,7 @@
         <v>23.295190579090701</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A848" t="s">
         <v>2</v>
       </c>
@@ -14850,7 +14851,7 @@
         <v>1.63644044547185</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A849" t="s">
         <v>5</v>
       </c>
@@ -14867,7 +14868,7 @@
         <v>45.4851009918101</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A850" t="s">
         <v>5</v>
       </c>
@@ -14884,7 +14885,7 @@
         <v>0.145257766172041</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
         <v>5</v>
       </c>
@@ -14901,7 +14902,7 @@
         <v>26.193298522470599</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A852" t="s">
         <v>5</v>
       </c>
@@ -14918,7 +14919,7 @@
         <v>7.5786032445357296</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A853" t="s">
         <v>5</v>
       </c>
@@ -14935,7 +14936,7 @@
         <v>0.59281372829688495</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A854" t="s">
         <v>5</v>
       </c>
@@ -14952,7 +14953,7 @@
         <v>40.216597927125399</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A855" t="s">
         <v>5</v>
       </c>
@@ -14969,7 +14970,7 @@
         <v>5.9395829486690799</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A856" t="s">
         <v>6</v>
       </c>
@@ -14986,7 +14987,7 @@
         <v>68.256278880908397</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
         <v>6</v>
       </c>
@@ -15003,7 +15004,7 @@
         <v>2.5879716460093301</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
         <v>6</v>
       </c>
@@ -15020,7 +15021,7 @@
         <v>56.975560463759599</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
         <v>6</v>
       </c>
@@ -15037,7 +15038,7 @@
         <v>56.360373114965597</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
         <v>6</v>
       </c>
@@ -15054,7 +15055,7 @@
         <v>9.3374261858994902</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A861" t="s">
         <v>6</v>
       </c>
@@ -15071,7 +15072,7 @@
         <v>49.309660289493301</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
         <v>6</v>
       </c>
@@ -15088,7 +15089,7 @@
         <v>17.7236351196449</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
         <v>7</v>
       </c>
@@ -15105,7 +15106,7 @@
         <v>4.51612428715893</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
         <v>7</v>
       </c>
@@ -15122,7 +15123,7 @@
         <v>0.18306115584716201</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
         <v>7</v>
       </c>
@@ -15139,7 +15140,7 @@
         <v>7.4152892679296096</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A866" t="s">
         <v>7</v>
       </c>
@@ -15156,7 +15157,7 @@
         <v>51.934932658458898</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A867" t="s">
         <v>7</v>
       </c>
@@ -15173,7 +15174,7 @@
         <v>1.58317092117171</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A868" t="s">
         <v>7</v>
       </c>
@@ -15190,7 +15191,7 @@
         <v>14.217636288334401</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A869" t="s">
         <v>7</v>
       </c>
@@ -15207,7 +15208,7 @@
         <v>1.53345793075701</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A870" t="s">
         <v>8</v>
       </c>
@@ -15224,7 +15225,7 @@
         <v>77.926959793998705</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A871" t="s">
         <v>8</v>
       </c>
@@ -15241,7 +15242,7 @@
         <v>5.2492698006314997</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A872" t="s">
         <v>8</v>
       </c>
@@ -15258,7 +15259,7 @@
         <v>36.757926788317398</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A873" t="s">
         <v>8</v>
       </c>
@@ -15275,7 +15276,7 @@
         <v>70.628392848850197</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A874" t="s">
         <v>8</v>
       </c>
@@ -15292,7 +15293,7 @@
         <v>25.750157545212101</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A875" t="s">
         <v>8</v>
       </c>
@@ -15309,7 +15310,7 @@
         <v>108.11889718017601</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A876" t="s">
         <v>8</v>
       </c>
@@ -15326,7 +15327,7 @@
         <v>56.080857281883503</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A877" t="s">
         <v>9</v>
       </c>
@@ -15343,7 +15344,7 @@
         <v>19.369373019577299</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A878" t="s">
         <v>9</v>
       </c>
@@ -15360,7 +15361,7 @@
         <v>19.3575663799806</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A879" t="s">
         <v>9</v>
       </c>
@@ -15377,7 +15378,7 @@
         <v>6.1150268685442803</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A880" t="s">
         <v>9</v>
       </c>
@@ -15394,7 +15395,7 @@
         <v>3.4809050898154901</v>
       </c>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A881" t="s">
         <v>9</v>
       </c>
@@ -15411,7 +15412,7 @@
         <v>0.61937617116529897</v>
       </c>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A882" t="s">
         <v>9</v>
       </c>
@@ -15428,7 +15429,7 @@
         <v>6.1487441345995597</v>
       </c>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A883" t="s">
         <v>9</v>
       </c>
@@ -15446,7 +15447,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E211" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E883" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="R_NEU"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2020"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:E610">
+      <sortCondition ref="D1:D883"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
